--- a/linux_test_gpt/voc.xlsx
+++ b/linux_test_gpt/voc.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\basic\linux_test_gpt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740C5258-A728-4603-88E4-E571A8749BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0242E2-D6AA-4E54-9E6B-9126BACBE612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="2160" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
   <si>
     <t>Directory listing</t>
   </si>
@@ -150,133 +161,309 @@
     <t>Search recursively for pattern in dir</t>
   </si>
   <si>
+    <t>Find all instances of file</t>
+  </si>
+  <si>
+    <t>Display currently active processes</t>
+  </si>
+  <si>
+    <t>Ps with details</t>
+  </si>
+  <si>
+    <t>Kill process with pid ‘pid’</t>
+  </si>
+  <si>
+    <t>Kill all processes named proc</t>
+  </si>
+  <si>
+    <t>Lists stopped jobs, resume stopped job in the background</t>
+  </si>
+  <si>
+    <t>Bring most recent job to foreground</t>
+  </si>
+  <si>
+    <t>Brings job n to foreground</t>
+  </si>
+  <si>
+    <t>Tape archive files into file.tar</t>
+  </si>
+  <si>
+    <t>Untar into current directory</t>
+  </si>
+  <si>
+    <t>Show contents of archive</t>
+  </si>
+  <si>
+    <t>Tar flags:</t>
+  </si>
+  <si>
+    <t>Create archive</t>
+  </si>
+  <si>
+    <t>Table of contents</t>
+  </si>
+  <si>
+    <t>Extract</t>
+  </si>
+  <si>
+    <t>Specifies filename</t>
+  </si>
+  <si>
+    <t>Use zip/gzip</t>
+  </si>
+  <si>
+    <t>Do not overwrite</t>
+  </si>
+  <si>
+    <t>Sample file</t>
+  </si>
+  <si>
+    <t>Ask for confirmation</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>Halts current command</t>
+  </si>
+  <si>
+    <t>Stops current command</t>
+  </si>
+  <si>
+    <t>Resume stopped command in foreground</t>
+  </si>
+  <si>
+    <t>Resume stopped command in background</t>
+  </si>
+  <si>
+    <t>Log out of current session</t>
+  </si>
+  <si>
+    <t>Erase one word in current line</t>
+  </si>
+  <si>
+    <t>Erase whole line</t>
+  </si>
+  <si>
+    <t>Reverse lookup of previous commands</t>
+  </si>
+  <si>
+    <t>Repeat last command</t>
+  </si>
+  <si>
+    <t>compress file and rename to file.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decompress file.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping host'host'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get whois for domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get DNS for domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse lookup host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continue stopped download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursively download files from url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change permission of file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change permission of file 777, read for owner, write/ execute for group/world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colon separated list of pathnames to search for commands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The GCC compilation process can be divided into four stages</t>
+  </si>
+  <si>
+    <t>Write suffix:</t>
+  </si>
+  <si>
+    <t>c source files</t>
+  </si>
+  <si>
+    <t>c++ source files</t>
+  </si>
+  <si>
+    <t>Header files</t>
+  </si>
+  <si>
+    <t>After preprocessing</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Static libraries</t>
+  </si>
+  <si>
+    <t>Dynamic libraries</t>
+  </si>
+  <si>
+    <t>Perform preprocessing only (do not compile, assemble, or link)</t>
+  </si>
+  <si>
+    <t>Specify output files</t>
+  </si>
+  <si>
+    <t>Compile with extra: 1. Create debug symbol table 2. Turn off all optimizations</t>
+  </si>
+  <si>
+    <t>Compile hello.c and output a.out by default</t>
+  </si>
+  <si>
+    <t>Compile hello.c and specify the output file as hello</t>
+  </si>
+  <si>
+    <t>Execute preprocessing only, output hello.i source file</t>
+  </si>
+  <si>
+    <t>Preprocess and compile only, output hello.s assembly file</t>
+  </si>
+  <si>
+    <t>You can also generate hello.s assembly files from hello.i files</t>
+  </si>
+  <si>
+    <t>Preprocess, compile and compile only, output hello.o target file</t>
+  </si>
+  <si>
+    <t>can also generate the target file hello.o from hello.i or hello.s</t>
+  </si>
+  <si>
+    <t>Link from hello.o target file to the executable hello</t>
+  </si>
+  <si>
+    <t>View all file descriptions</t>
+  </si>
+  <si>
+    <t>View hello file descriptions</t>
+  </si>
+  <si>
+    <t>Uploading f1 to svn step by step</t>
+  </si>
+  <si>
+    <t>Put the displayed commands in the xxx.txt file</t>
+  </si>
+  <si>
+    <t>Append the displayed command to xxx.txt</t>
+  </si>
+  <si>
+    <t>Clear screen</t>
+  </si>
+  <si>
+    <t>Current path</t>
+  </si>
+  <si>
+    <t>parent directory</t>
+  </si>
+  <si>
+    <t>The parent directory of the parent directory</t>
+  </si>
+  <si>
+    <t>Return to the last path</t>
+  </si>
+  <si>
+    <t>Back to root directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get "ntfs" from xxx.txt </t>
+  </si>
+  <si>
+    <t>Which line is it on?</t>
+  </si>
+  <si>
+    <t>Lines that do not include ntfs</t>
+  </si>
+  <si>
+    <t>Lines starting with ntfs</t>
+  </si>
+  <si>
+    <t>Ending with ntfs</t>
+  </si>
+  <si>
+    <t>Move 1.txt to the laowang/ folder</t>
+  </si>
+  <si>
+    <t>Find the file</t>
+  </si>
+  <si>
+    <t>Find files Get permissions</t>
+  </si>
+  <si>
+    <t>Shutdown</t>
+  </si>
+  <si>
+    <t>Reboot</t>
+  </si>
+  <si>
+    <t>Open two terminals at the same time</t>
+  </si>
+  <si>
+    <t>Switch to aa account</t>
+  </si>
+  <si>
+    <t>Set the password of aa</t>
+  </si>
+  <si>
+    <t>Compile only (do not assemble or link)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compile and assemble, but not link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use pipe instead of intermediate files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Search for pattern in the output command</t>
-  </si>
-  <si>
-    <t>Find all instances of file</t>
-  </si>
-  <si>
-    <t>Display currently active processes</t>
-  </si>
-  <si>
-    <t>Ps with details</t>
-  </si>
-  <si>
-    <t>Kill process with pid ‘pid’</t>
-  </si>
-  <si>
-    <t>Kill all processes named proc</t>
-  </si>
-  <si>
-    <t>Lists stopped jobs, resume stopped job in the background</t>
-  </si>
-  <si>
-    <t>Bring most recent job to foreground</t>
-  </si>
-  <si>
-    <t>Brings job n to foreground</t>
-  </si>
-  <si>
-    <t>Tape archive files into file.tar</t>
-  </si>
-  <si>
-    <t>Untar into current directory</t>
-  </si>
-  <si>
-    <t>Show contents of archive</t>
-  </si>
-  <si>
-    <t>Tar flags:</t>
-  </si>
-  <si>
-    <t>Create archive</t>
-  </si>
-  <si>
-    <t>Table of contents</t>
-  </si>
-  <si>
-    <t>Extract</t>
-  </si>
-  <si>
-    <t>Specifies filename</t>
-  </si>
-  <si>
-    <t>Use zip/gzip</t>
-  </si>
-  <si>
-    <t>Do not overwrite</t>
-  </si>
-  <si>
-    <t>Sample file</t>
-  </si>
-  <si>
-    <t>Ask for confirmation</t>
-  </si>
-  <si>
-    <t>verbose</t>
-  </si>
-  <si>
-    <t>Halts current command</t>
-  </si>
-  <si>
-    <t>Stops current command</t>
-  </si>
-  <si>
-    <t>Resume stopped command in foreground</t>
-  </si>
-  <si>
-    <t>Resume stopped command in background</t>
-  </si>
-  <si>
-    <t>Log out of current session</t>
-  </si>
-  <si>
-    <t>Erase one word in current line</t>
-  </si>
-  <si>
-    <t>Erase whole line</t>
-  </si>
-  <si>
-    <t>Reverse lookup of previous commands</t>
-  </si>
-  <si>
-    <t>Repeat last command</t>
-  </si>
-  <si>
-    <t>compress file and rename to file.gz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decompress file.gz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping host'host'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get whois for domain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get DNS for domain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reverse lookup host</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>download file</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>continue stopped download</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recursively download files from url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -292,19 +479,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,10 +512,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,452 +802,757 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A90"/>
+  <dimension ref="A1:A153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.9140625" customWidth="1"/>
+    <col min="1" max="1" width="82.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.9140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="43" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>80</v>
       </c>
     </row>
+    <row r="93" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3"/>
+    </row>
+    <row r="103" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/linux_test_gpt/voc.xlsx
+++ b/linux_test_gpt/voc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\basic\linux_test_gpt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0242E2-D6AA-4E54-9E6B-9126BACBE612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B47DFF-3958-42F6-BED4-5F2455B26FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13110" yWindow="1730" windowWidth="11490" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="173">
   <si>
     <t>Directory listing</t>
   </si>
@@ -307,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>change permission of file 777, read for owner, write/ execute for group/world</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>colon separated list of pathnames to search for commands</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,13 +460,160 @@
   <si>
     <t>Search for pattern in the output command</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change permission of file, rwx for owner, rw for group, rx for other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retrieve files locally</t>
+  </si>
+  <si>
+    <t>reverts the local 123.txt file to version 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used to display the modification history of this file</t>
+  </si>
+  <si>
+    <t>to see the difference between version 2 and version 3 of 123.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commit delete file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all environment variables given to the program by the shell</t>
+  </si>
+  <si>
+    <t>Define environment variables and assign values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write content to standard output</t>
+  </si>
+  <si>
+    <t>Output: 2</t>
+  </si>
+  <si>
+    <r>
+      <t>Output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>user1</t>
+    </r>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>Output: sum of 1 - 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output: files in current dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output: files ends with ".txt" in current dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Returns the PID of the login shell</t>
+  </si>
+  <si>
+    <t>Returns the status of the previous command, 0 means no error, any other value indicates an error</t>
+  </si>
+  <si>
+    <t>Returns the number of arguments passed to the script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displays all arguments passed to the script as a single string, unlike position variables, this option can have more than 9 arguments</t>
+  </si>
+  <si>
+    <t>Returns the process ID number of the last process running in the background</t>
+  </si>
+  <si>
+    <t>returns the number of arguments passed to the script, but is used in quotes, and returns each argument in quotes</t>
+  </si>
+  <si>
+    <t>shows the current options used by the shell</t>
+  </si>
+  <si>
+    <t>the name of the script itself</t>
+  </si>
+  <si>
+    <t>the last argument to save the previously executed command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the first argument of the incoming script</t>
+  </si>
+  <si>
+    <t>the second argument of the script</t>
+  </si>
+  <si>
+    <t>cut each line by `|` and get the second column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Segmentation in bytes</t>
+  </si>
+  <si>
+    <t>Reverse lookup, print only the lines that don't match</t>
+  </si>
+  <si>
+    <t>Sort by alphabet, numbers and space characters, ignoring all other characters.</t>
+  </si>
+  <si>
+    <t>Sort the first 3 letters according to the abbreviation of the month.</t>
+  </si>
+  <si>
+    <t>Sort by the value of number.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique and the output is de-duplicated.</t>
+  </si>
+  <si>
+    <t>Write the sorted result to the original file number.txt</t>
+  </si>
+  <si>
+    <t>Number all output lines starting from 1</t>
+  </si>
+  <si>
+    <t>show all svn commands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Committing changed files to the repository</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +632,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -512,14 +661,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -802,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A153"/>
+  <dimension ref="A1:A198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -816,739 +968,921 @@
     <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
-    </row>
-    <row r="92" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3"/>
-    </row>
-    <row r="103" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="107" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
-    </row>
-    <row r="113" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="118" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
-    </row>
-    <row r="120" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="124" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="130" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="131" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
-    </row>
-    <row r="135" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="136" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2"/>
-    </row>
-    <row r="141" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="144" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="145" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="149" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="150" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="153" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>131</v>
+    <row r="154" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A154" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A155" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A156" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A157" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A158" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A160" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A162" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A163" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A164" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="A167" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="A168" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="A170" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A172" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A176" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A177" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A178" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A179" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A180" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A181" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A182" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A183" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A184" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A185" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A186" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="A188" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A189" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A191" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
+      <c r="A192" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A193" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A195" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A196" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A198" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/linux_test_gpt/voc.xlsx
+++ b/linux_test_gpt/voc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\basic\linux_test_gpt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B47DFF-3958-42F6-BED4-5F2455B26FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C26E82-9E55-4FC2-8B51-A4B1A2D0A2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13110" yWindow="1730" windowWidth="11490" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="167">
   <si>
     <t>Directory listing</t>
   </si>
@@ -544,35 +544,13 @@
     <t>Returns the status of the previous command, 0 means no error, any other value indicates an error</t>
   </si>
   <si>
-    <t>Returns the number of arguments passed to the script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displays all arguments passed to the script as a single string, unlike position variables, this option can have more than 9 arguments</t>
-  </si>
-  <si>
     <t>Returns the process ID number of the last process running in the background</t>
   </si>
   <si>
-    <t>returns the number of arguments passed to the script, but is used in quotes, and returns each argument in quotes</t>
-  </si>
-  <si>
-    <t>shows the current options used by the shell</t>
-  </si>
-  <si>
-    <t>the name of the script itself</t>
-  </si>
-  <si>
     <t>the last argument to save the previously executed command</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>the first argument of the incoming script</t>
-  </si>
-  <si>
-    <t>the second argument of the script</t>
-  </si>
-  <si>
     <t>cut each line by `|` and get the second column</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,6 +585,11 @@
   </si>
   <si>
     <t>Committing changed files to the repository</t>
+  </si>
+  <si>
+    <t>displays all arguments passed to the script as a single string, 
+unlike position variables, this option can have more than 9 arguments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -661,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -673,6 +656,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,14 +945,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B63" sqref="B1:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="100.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.9140625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -1687,12 +1676,12 @@
     </row>
     <row r="154" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A154" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A155" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
@@ -1741,17 +1730,17 @@
       </c>
     </row>
     <row r="166" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
-      <c r="A166" s="5">
+      <c r="A166" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="5">
+      <c r="A167" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="5">
+      <c r="A168" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1796,93 +1785,81 @@
       </c>
     </row>
     <row r="178" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A178" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A179" s="4" t="s">
-        <v>154</v>
+      <c r="A178" s="4"/>
+    </row>
+    <row r="179" spans="1:1" ht="37" x14ac:dyDescent="0.45">
+      <c r="A179" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A180" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A181" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="A181" s="4"/>
     </row>
     <row r="182" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A182" s="4" t="s">
-        <v>157</v>
-      </c>
+      <c r="A182" s="4"/>
     </row>
     <row r="183" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A183" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="A183" s="4"/>
     </row>
     <row r="184" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A184" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A185" s="4" t="s">
-        <v>160</v>
-      </c>
+      <c r="A185" s="4"/>
     </row>
     <row r="186" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A186" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="A186" s="4"/>
     </row>
     <row r="188" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A189" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A191" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="18.5" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A193" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A195" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A196" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A198" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
